--- a/biology/Botanique/Tulipier_du_Gabon/Tulipier_du_Gabon.xlsx
+++ b/biology/Botanique/Tulipier_du_Gabon/Tulipier_du_Gabon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spathodea campanulata
 Le tulipier du Gabon (Spathodea campanulata) est une espèce d'arbres de la famille des Bignoniaceae originaire d'Afrique.
 Cette espèce est largement utilisée comme arbre d'ornement en région tropicale en raison de la beauté de sa floraison et de sa facilité d'adaptation à différents milieux. Il se reproduit par des graines ailées très légères et représente pour les flores indigènes une menace très sérieuse comme plante envahissante.
-Cette espèce figure parmi les 100 espèces exotiques les plus envahissantes du monde établie par l'UICN[1].
+Cette espèce figure parmi les 100 espèces exotiques les plus envahissantes du monde établie par l'UICN.
 </t>
         </is>
       </c>
@@ -514,68 +526,284 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Spathodea campanulata fut décrite par Ambroise Marie François Joseph Palisot de Beauvois et publié dans la Flore d'Oware et de Bénin, en Afrique 1: 47–48, t. 27, 28. 1805[2],[3].
-Étymologie
-Le nom générique, Spathodea, dérive du grec, σφατηε, en référence au calice qui évoque la forme d'une épée.
-L'épithète spécifique, campanulata, est un terme latin qui signifie « en forme de petite cloche (campanulée) »[4].
-Synonymes
-Selon Catalogue of Life                                   (19 juin 2015)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spathodea campanulata fut décrite par Ambroise Marie François Joseph Palisot de Beauvois et publié dans la Flore d'Oware et de Bénin, en Afrique 1: 47–48, t. 27, 28. 1805,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tulipier_du_Gabon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tulipier_du_Gabon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Spathodea, dérive du grec, σφατηε, en référence au calice qui évoque la forme d'une épée.
+L'épithète spécifique, campanulata, est un terme latin qui signifie « en forme de petite cloche (campanulée) ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tulipier_du_Gabon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tulipier_du_Gabon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (19 juin 2015) :
 Bignonia tulipifera Schum.
 Spathodea campanulata subsp. congolana Bidgood
 Spathodea campanulata subsp. nilotica (Seem.) Bidgood
 Spathodea danckelmaniana Buettn.
 Spathodea nilotica Seemann
-Spathodea tulipifera (Thonn.) G. Don
-Noms vernaculaires
-en français : bâton du sorcier, flamme de la forêt, immortel étranger, pissat de singe, pisse l'eau, pisse-pisse, tulipier d'Afrique, tulipier du Gabon[6],[7].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+Spathodea tulipifera (Thonn.) G. Don</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Tulipier_du_Gabon</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Tulipier_du_Gabon</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>en français : bâton du sorcier, flamme de la forêt, immortel étranger, pissat de singe, pisse l'eau, pisse-pisse, tulipier d'Afrique, tulipier du Gabon,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tulipier_du_Gabon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tulipier_du_Gabon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aspect général
-Spathodea campanulata est un arbre de taille moyenne atteignant une hauteur de 10 à 35 m, à feuillage caduc, formant une couronne dense, sombre, parfois un peu aplatie.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spathodea campanulata est un arbre de taille moyenne atteignant une hauteur de 10 à 35 m, à feuillage caduc, formant une couronne dense, sombre, parfois un peu aplatie.
 Le tronc peut atteindre 60 cm de diamètre. 
-L'écorce est d'abord lisse, claire, de couleur gris-brun, puis en vieillissant devient écailleuse, fissurée verticalement et horizontalement, de couleur plus foncée[8]. 
-Feuilles
-Les feuilles  caduques, opposées ou verticillées par 3, sont composées imparipennées et comptent de 9 à 15 folioles sessiles ou brièvement pétiolées. Le limbe des folioles est elliptique à ovale, acuminé, mesurant de 7 à 16 cm de long sur 3 à 7 cm de large[8].
-Fleurs
-Les fleurs, grandes et voyantes, zygomorphes, sont rouge-écarlate, jaune-orange à l'intérieur, sont regroupées en racème terminal. On en connait une variété à fleurs jaunes[9].
+L'écorce est d'abord lisse, claire, de couleur gris-brun, puis en vieillissant devient écailleuse, fissurée verticalement et horizontalement, de couleur plus foncée. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tulipier_du_Gabon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tulipier_du_Gabon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles  caduques, opposées ou verticillées par 3, sont composées imparipennées et comptent de 9 à 15 folioles sessiles ou brièvement pétiolées. Le limbe des folioles est elliptique à ovale, acuminé, mesurant de 7 à 16 cm de long sur 3 à 7 cm de large.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tulipier_du_Gabon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tulipier_du_Gabon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs, grandes et voyantes, zygomorphes, sont rouge-écarlate, jaune-orange à l'intérieur, sont regroupées en racème terminal. On en connait une variété à fleurs jaunes.
 Le calice vert, nervuré et tomenteux, est fendu sur le côté postérieur et mesure environ 1 cm de long.
 La corolle compte 5 pétales soudés en tube à la base.
 Les étamines, au nombre de 4, insérées sur le tube de la corolle, ont un filament orange.
 Le style porte un stigmate à 2 lèvres. 
 Les boutons floraux, incurvés, contiennent une sève rouge. 
-Fruits
-Le fruit est une capsule déhiscente, ligneuse, dressée, de forme ellipsoïde allongée (semblable à une gousse), qui mesure de 15 à 27 cm de long sur × 3,5–7 cm. De couleur brun noirâtre, il s'ouvre par deux valves à la forme caractéristique de « barque de pêcheur », libérant de nombreuses graines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tulipier_du_Gabon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tulipier_du_Gabon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une capsule déhiscente, ligneuse, dressée, de forme ellipsoïde allongée (semblable à une gousse), qui mesure de 15 à 27 cm de long sur × 3,5–7 cm. De couleur brun noirâtre, il s'ouvre par deux valves à la forme caractéristique de « barque de pêcheur », libérant de nombreuses graines.
 Celles-ci, fines et aplaties, mesurent environ 2 cm de diamètre et sont entourées d'une aile translucide.
-Une grappe de fleurs produit généralement de 1 à 4 capsules[9].
+Une grappe de fleurs produit généralement de 1 à 4 capsules.
 </t>
         </is>
       </c>
